--- a/tabtoy/skill13.xlsx
+++ b/tabtoy/skill13.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -83,6 +83,72 @@
   </si>
   <si>
     <t>技能9</t>
+  </si>
+  <si>
+    <t>13000010</t>
+  </si>
+  <si>
+    <t>技能10</t>
+  </si>
+  <si>
+    <t>13000011</t>
+  </si>
+  <si>
+    <t>技能11</t>
+  </si>
+  <si>
+    <t>13000012</t>
+  </si>
+  <si>
+    <t>技能12</t>
+  </si>
+  <si>
+    <t>13000013</t>
+  </si>
+  <si>
+    <t>技能13</t>
+  </si>
+  <si>
+    <t>13000014</t>
+  </si>
+  <si>
+    <t>技能14</t>
+  </si>
+  <si>
+    <t>13000015</t>
+  </si>
+  <si>
+    <t>技能15</t>
+  </si>
+  <si>
+    <t>13000016</t>
+  </si>
+  <si>
+    <t>技能16</t>
+  </si>
+  <si>
+    <t>13000017</t>
+  </si>
+  <si>
+    <t>技能17</t>
+  </si>
+  <si>
+    <t>13000018</t>
+  </si>
+  <si>
+    <t>技能18</t>
+  </si>
+  <si>
+    <t>13000019</t>
+  </si>
+  <si>
+    <t>技能19</t>
+  </si>
+  <si>
+    <t>13000020</t>
+  </si>
+  <si>
+    <t>技能20</t>
   </si>
 </sst>
 </file>
@@ -701,10 +767,18 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -729,10 +803,18 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -757,10 +839,18 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -785,10 +875,18 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -813,10 +911,18 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -841,10 +947,18 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -869,10 +983,18 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -897,10 +1019,18 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -925,10 +1055,18 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -953,10 +1091,18 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -981,10 +1127,18 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1009,7 +1163,7 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1037,7 +1191,7 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1065,7 +1219,7 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1093,7 +1247,7 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1121,7 +1275,7 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1149,7 +1303,7 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1177,7 +1331,7 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1205,7 +1359,7 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1233,7 +1387,7 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>

--- a/tabtoy/skill13.xlsx
+++ b/tabtoy/skill13.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +25,12 @@
     <t>描述</t>
   </si>
   <si>
+    <t>技能类型</t>
+  </si>
+  <si>
+    <t>是否拥有</t>
+  </si>
+  <si>
     <t>13000001</t>
   </si>
   <si>
@@ -35,6 +41,9 @@
   </si>
   <si>
     <t>这是技能描述</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>13000002</t>
@@ -419,8 +428,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -444,19 +457,23 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -480,19 +497,23 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -516,19 +537,23 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -552,19 +577,23 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -588,19 +617,23 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -624,19 +657,23 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -660,19 +697,23 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -696,19 +737,23 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -732,19 +777,23 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -768,19 +817,23 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -804,19 +857,23 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -840,19 +897,23 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -876,19 +937,23 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -912,19 +977,23 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -948,19 +1017,23 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -984,19 +1057,23 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1020,19 +1097,23 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1056,19 +1137,23 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1092,19 +1177,23 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1128,19 +1217,23 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>

--- a/tabtoy/skill13.xlsx
+++ b/tabtoy/skill13.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -19,10 +19,16 @@
     <t>名称</t>
   </si>
   <si>
-    <t>图标</t>
+    <t>预制文件</t>
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>技能类型</t>
+  </si>
+  <si>
+    <t>是否拥有</t>
   </si>
   <si>
     <t>13000001</t>
@@ -31,10 +37,13 @@
     <t>技能1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>prefab/skill/skill1</t>
   </si>
   <si>
     <t>这是技能描述</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>13000002</t>
@@ -43,10 +52,22 @@
     <t>技能2</t>
   </si>
   <si>
+    <t>prefab/skill/skill2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>13000003</t>
   </si>
   <si>
     <t>技能3</t>
+  </si>
+  <si>
+    <t>prefab/skill/skill3</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>13000004</t>
@@ -55,10 +76,22 @@
     <t>技能4</t>
   </si>
   <si>
+    <t>prefab/skill/skill4</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>13000005</t>
   </si>
   <si>
     <t>技能5</t>
+  </si>
+  <si>
+    <t>prefab/skill/skill5</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>13000006</t>
@@ -67,10 +100,22 @@
     <t>技能6</t>
   </si>
   <si>
+    <t>prefab/skill/skill6</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>13000007</t>
   </si>
   <si>
     <t>技能7</t>
+  </si>
+  <si>
+    <t>prefab/skill/skill7</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>13000008</t>
@@ -79,10 +124,22 @@
     <t>技能8</t>
   </si>
   <si>
+    <t>prefab/skill/skill8</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>13000009</t>
   </si>
   <si>
     <t>技能9</t>
+  </si>
+  <si>
+    <t>prefab/skill/skill9</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>13000010</t>
@@ -91,10 +148,22 @@
     <t>技能10</t>
   </si>
   <si>
+    <t>prefab/skill/skill10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>13000011</t>
   </si>
   <si>
     <t>技能11</t>
+  </si>
+  <si>
+    <t>prefab/skill/skill11</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>13000012</t>
@@ -103,10 +172,22 @@
     <t>技能12</t>
   </si>
   <si>
+    <t>prefab/skill/skill12</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>13000013</t>
   </si>
   <si>
     <t>技能13</t>
+  </si>
+  <si>
+    <t>prefab/skill/skill13</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>13000014</t>
@@ -115,10 +196,22 @@
     <t>技能14</t>
   </si>
   <si>
+    <t>prefab/skill/skill14</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>13000015</t>
   </si>
   <si>
     <t>技能15</t>
+  </si>
+  <si>
+    <t>prefab/skill/skill15</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>13000016</t>
@@ -127,10 +220,22 @@
     <t>技能16</t>
   </si>
   <si>
+    <t>prefab/skill/skill16</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>13000017</t>
   </si>
   <si>
     <t>技能17</t>
+  </si>
+  <si>
+    <t>prefab/skill/skill17</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>13000018</t>
@@ -139,16 +244,34 @@
     <t>技能18</t>
   </si>
   <si>
+    <t>prefab/skill/skill18</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>13000019</t>
   </si>
   <si>
     <t>技能19</t>
   </si>
   <si>
+    <t>prefab/skill/skill19</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>13000020</t>
   </si>
   <si>
     <t>技能20</t>
+  </si>
+  <si>
+    <t>prefab/skill/skill20</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -419,8 +542,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -444,19 +571,23 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -480,19 +611,23 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -516,19 +651,23 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -552,19 +691,23 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -588,19 +731,23 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -624,19 +771,23 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -660,19 +811,23 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -696,19 +851,23 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -732,19 +891,23 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -768,19 +931,23 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -804,19 +971,23 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -840,19 +1011,23 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -876,19 +1051,23 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -912,19 +1091,23 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -948,19 +1131,23 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -984,19 +1171,23 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1020,19 +1211,23 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1056,19 +1251,23 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1092,19 +1291,23 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1128,19 +1331,23 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
